--- a/COVID_19_9880/otchet/downloads_exel/Отчет о проведении исследований на COVID19 01.08.2021 - 16.08.2021 (5).xlsx
+++ b/COVID_19_9880/otchet/downloads_exel/Отчет о проведении исследований на COVID19 01.08.2021 - 16.08.2021 (5).xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>ФЕДЕРАЛЬНАЯ СЛУЖБА ПО НАДЗОРУ В СФЕРЕ ЗАЩИТЫ ПРАВ ПОТРЕБИТЕЛЕЙ И БЛАГОПОЛУЧИЯ ЧЕЛОВЕКА</t>
   </si>
@@ -69,7 +69,7 @@
     <t>01.08.2021 - 16.08.2021</t>
   </si>
   <si>
-    <t>НИИ  Пастера; 5, Северный; ФБУЗ "Центр гигиены и эпидемиологии в городе Санкт-Петербург", ул. Оборонная, д. 35</t>
+    <t>1, Юго-Западный; ФБУЗ "Центр гигиены и эпидемиологии в городе Санкт-Петербург", ул. Оборонная, д. 35</t>
   </si>
   <si>
     <t>Определение наличия РНК SARS-CoV-2</t>
@@ -78,16 +78,13 @@
     <t>Набор реагентов для выявления РНК коронавируса SARS-CoV-2 методом ОТ-ПЦР в режиме реального времени "РеалБест РНК SARS-CoV-2"</t>
   </si>
   <si>
-    <t>На исследовании:</t>
-  </si>
-  <si>
     <t>SARS-CoV-2 - подтверждено:</t>
   </si>
   <si>
-    <t>08.09.2021 16:00</t>
+    <t>19.11.2021 12:05</t>
   </si>
   <si>
-    <t>Учреждение, направившее материал: ПАО "Сбербанк" (Ветеранов 114 корпус 1)</t>
+    <t>Учреждение, направившее материал: ООО "ВЕСЕЛАЯ УЛЫБКА"</t>
   </si>
   <si>
     <t>SARS-CoV-2 - подтверждено</t>
@@ -117,28 +114,25 @@
     <t>1</t>
   </si>
   <si>
-    <t>11.08.2021</t>
+    <t>10.08.2021</t>
   </si>
   <si>
-    <t>СаблинАнтител Роман Евгеньевич</t>
+    <t>Новикова Светлана Игоревна</t>
   </si>
   <si>
-    <t>11.11.1980</t>
-  </si>
-  <si>
-    <t>Ярославль, Мира 1 - 18</t>
-  </si>
-  <si>
-    <t>На исследовании</t>
-  </si>
-  <si>
-    <t>04.08.2021</t>
+    <t>30.05.1991</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>3</t>
+    <t>03.08.2021</t>
+  </si>
+  <si>
+    <t>Сарыев Камил Фазилевич</t>
+  </si>
+  <si>
+    <t>02.12.2000</t>
   </si>
 </sst>
 </file>
@@ -146,7 +140,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,29 +179,6 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -290,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -330,24 +301,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -628,7 +586,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CS35"/>
+  <dimension ref="A1:CS30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:CQ6"/>
@@ -1976,7 +1934,7 @@
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
       <c r="X14" s="7" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
@@ -2079,7 +2037,7 @@
       <c r="V15" s="10"/>
       <c r="W15" s="10"/>
       <c r="X15" s="10" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
@@ -2153,211 +2111,209 @@
       <c r="CP15" s="10"/>
       <c r="CQ15" s="10"/>
     </row>
-    <row r="16">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
-      <c r="AC16" s="10"/>
-      <c r="AD16" s="10"/>
-      <c r="AE16" s="10"/>
-      <c r="AF16" s="10"/>
-      <c r="AG16" s="10"/>
-      <c r="AH16" s="10"/>
-      <c r="AI16" s="10"/>
-      <c r="AJ16" s="10"/>
-      <c r="AK16" s="10"/>
-      <c r="AL16" s="10"/>
-      <c r="AM16" s="10"/>
-      <c r="AN16" s="10"/>
-      <c r="AO16" s="10"/>
-      <c r="AP16" s="10"/>
-      <c r="AQ16" s="10"/>
-      <c r="AR16" s="10"/>
-      <c r="AS16" s="10"/>
-      <c r="AT16" s="10"/>
-      <c r="AU16" s="10"/>
-      <c r="AV16" s="10"/>
-      <c r="AW16" s="10"/>
-      <c r="AX16" s="10"/>
-      <c r="AY16" s="10"/>
-      <c r="AZ16" s="10"/>
-      <c r="BA16" s="10"/>
-      <c r="BB16" s="10"/>
-      <c r="BC16" s="10"/>
-      <c r="BD16" s="10"/>
-      <c r="BE16" s="10"/>
-      <c r="BF16" s="10"/>
-      <c r="BG16" s="10"/>
-      <c r="BH16" s="10"/>
-      <c r="BI16" s="10"/>
-      <c r="BJ16" s="10"/>
-      <c r="BK16" s="10"/>
-      <c r="BL16" s="10"/>
-      <c r="BM16" s="10"/>
-      <c r="BN16" s="10"/>
-      <c r="BO16" s="10"/>
-      <c r="BP16" s="10"/>
-      <c r="BQ16" s="10"/>
-      <c r="BR16" s="10"/>
-      <c r="BS16" s="10"/>
-      <c r="BT16" s="10"/>
-      <c r="BU16" s="10"/>
-      <c r="BV16" s="10"/>
-      <c r="BW16" s="10"/>
-      <c r="BX16" s="10"/>
-      <c r="BY16" s="10"/>
-      <c r="BZ16" s="10"/>
-      <c r="CA16" s="10"/>
-      <c r="CB16" s="10"/>
-      <c r="CC16" s="10"/>
-      <c r="CD16" s="10"/>
-      <c r="CE16" s="10"/>
-      <c r="CF16" s="10"/>
-      <c r="CG16" s="10"/>
-      <c r="CH16" s="10"/>
-      <c r="CI16" s="10"/>
-      <c r="CJ16" s="10"/>
-      <c r="CK16" s="10"/>
-      <c r="CL16" s="10"/>
-      <c r="CM16" s="10"/>
-      <c r="CN16" s="10"/>
-      <c r="CO16" s="10"/>
-      <c r="CP16" s="10"/>
-      <c r="CQ16" s="10"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
+      <c r="AO16" s="4"/>
+      <c r="AP16" s="4"/>
+      <c r="AQ16" s="4"/>
+      <c r="AR16" s="4"/>
+      <c r="AS16" s="4"/>
+      <c r="AT16" s="4"/>
+      <c r="AU16" s="4"/>
+      <c r="AV16" s="4"/>
+      <c r="AW16" s="4"/>
+      <c r="AX16" s="4"/>
+      <c r="AY16" s="4"/>
+      <c r="AZ16" s="4"/>
+      <c r="BA16" s="4"/>
+      <c r="BB16" s="4"/>
+      <c r="BC16" s="4"/>
+      <c r="BD16" s="4"/>
+      <c r="BE16" s="4"/>
+      <c r="BF16" s="4"/>
+      <c r="BG16" s="4"/>
+      <c r="BH16" s="4"/>
+      <c r="BI16" s="4"/>
+      <c r="BJ16" s="4"/>
+      <c r="BK16" s="4"/>
+      <c r="BL16" s="4"/>
+      <c r="BM16" s="4"/>
+      <c r="BN16" s="4"/>
+      <c r="BO16" s="4"/>
+      <c r="BP16" s="4"/>
+      <c r="BQ16" s="4"/>
+      <c r="BR16" s="4"/>
+      <c r="BS16" s="4"/>
+      <c r="BT16" s="4"/>
+      <c r="BU16" s="4"/>
+      <c r="BV16" s="4"/>
+      <c r="BW16" s="4"/>
+      <c r="BX16" s="4"/>
+      <c r="BY16" s="4"/>
+      <c r="BZ16" s="4"/>
+      <c r="CA16" s="4"/>
+      <c r="CB16" s="4"/>
+      <c r="CC16" s="4"/>
+      <c r="CD16" s="4"/>
+      <c r="CE16" s="4"/>
+      <c r="CF16" s="4"/>
+      <c r="CG16" s="4"/>
+      <c r="CH16" s="4"/>
+      <c r="CI16" s="4"/>
+      <c r="CJ16" s="4"/>
+      <c r="CK16" s="4"/>
+      <c r="CL16" s="4"/>
+      <c r="CM16" s="4"/>
+      <c r="CN16" s="4"/>
+      <c r="CO16" s="4"/>
+      <c r="CP16" s="4"/>
+      <c r="CQ16" s="4"/>
+      <c r="CR16" s="1"/>
+      <c r="CS16" s="1"/>
     </row>
-    <row r="17" spans="1:97" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
-      <c r="AH17" s="4"/>
-      <c r="AI17" s="4"/>
-      <c r="AJ17" s="4"/>
-      <c r="AK17" s="4"/>
-      <c r="AL17" s="4"/>
-      <c r="AM17" s="4"/>
-      <c r="AN17" s="4"/>
-      <c r="AO17" s="4"/>
-      <c r="AP17" s="4"/>
-      <c r="AQ17" s="4"/>
-      <c r="AR17" s="4"/>
-      <c r="AS17" s="4"/>
-      <c r="AT17" s="4"/>
-      <c r="AU17" s="4"/>
-      <c r="AV17" s="4"/>
-      <c r="AW17" s="4"/>
-      <c r="AX17" s="4"/>
-      <c r="AY17" s="4"/>
-      <c r="AZ17" s="4"/>
-      <c r="BA17" s="4"/>
-      <c r="BB17" s="4"/>
-      <c r="BC17" s="4"/>
-      <c r="BD17" s="4"/>
-      <c r="BE17" s="4"/>
-      <c r="BF17" s="4"/>
-      <c r="BG17" s="4"/>
-      <c r="BH17" s="4"/>
-      <c r="BI17" s="4"/>
-      <c r="BJ17" s="4"/>
-      <c r="BK17" s="4"/>
-      <c r="BL17" s="4"/>
-      <c r="BM17" s="4"/>
-      <c r="BN17" s="4"/>
-      <c r="BO17" s="4"/>
-      <c r="BP17" s="4"/>
-      <c r="BQ17" s="4"/>
-      <c r="BR17" s="4"/>
-      <c r="BS17" s="4"/>
-      <c r="BT17" s="4"/>
-      <c r="BU17" s="4"/>
-      <c r="BV17" s="4"/>
-      <c r="BW17" s="4"/>
-      <c r="BX17" s="4"/>
-      <c r="BY17" s="4"/>
-      <c r="BZ17" s="4"/>
-      <c r="CA17" s="4"/>
-      <c r="CB17" s="4"/>
-      <c r="CC17" s="4"/>
-      <c r="CD17" s="4"/>
-      <c r="CE17" s="4"/>
-      <c r="CF17" s="4"/>
-      <c r="CG17" s="4"/>
-      <c r="CH17" s="4"/>
-      <c r="CI17" s="4"/>
-      <c r="CJ17" s="4"/>
-      <c r="CK17" s="4"/>
-      <c r="CL17" s="4"/>
-      <c r="CM17" s="4"/>
-      <c r="CN17" s="4"/>
-      <c r="CO17" s="4"/>
-      <c r="CP17" s="4"/>
-      <c r="CQ17" s="4"/>
+    <row r="17" spans="1:97" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="2"/>
+      <c r="AN17" s="2"/>
+      <c r="AO17" s="2"/>
+      <c r="AP17" s="2"/>
+      <c r="AQ17" s="2"/>
+      <c r="AR17" s="2"/>
+      <c r="AS17" s="2"/>
+      <c r="AT17" s="2"/>
+      <c r="AU17" s="2"/>
+      <c r="AV17" s="2"/>
+      <c r="AW17" s="2"/>
+      <c r="AX17" s="2"/>
+      <c r="AY17" s="2"/>
+      <c r="AZ17" s="2"/>
+      <c r="BA17" s="2"/>
+      <c r="BB17" s="2"/>
+      <c r="BC17" s="2"/>
+      <c r="BD17" s="2"/>
+      <c r="BE17" s="2"/>
+      <c r="BF17" s="2"/>
+      <c r="BG17" s="2"/>
+      <c r="BH17" s="2"/>
+      <c r="BI17" s="2"/>
+      <c r="BJ17" s="2"/>
+      <c r="BK17" s="2"/>
+      <c r="BL17" s="2"/>
+      <c r="BM17" s="2"/>
+      <c r="BN17" s="2"/>
+      <c r="BO17" s="2"/>
+      <c r="BP17" s="2"/>
+      <c r="BQ17" s="2"/>
+      <c r="BR17" s="2"/>
+      <c r="BS17" s="2"/>
+      <c r="BT17" s="2"/>
+      <c r="BU17" s="2"/>
+      <c r="BV17" s="2"/>
+      <c r="BW17" s="2"/>
+      <c r="BX17" s="2"/>
+      <c r="BY17" s="2"/>
+      <c r="BZ17" s="2"/>
+      <c r="CA17" s="2"/>
+      <c r="CB17" s="2"/>
+      <c r="CC17" s="2"/>
+      <c r="CD17" s="2"/>
+      <c r="CE17" s="2"/>
+      <c r="CF17" s="2"/>
+      <c r="CG17" s="2"/>
+      <c r="CH17" s="2"/>
+      <c r="CI17" s="2"/>
+      <c r="CJ17" s="2"/>
+      <c r="CK17" s="2"/>
+      <c r="CL17" s="2"/>
+      <c r="CM17" s="2"/>
+      <c r="CN17" s="2"/>
+      <c r="CO17" s="2"/>
+      <c r="CP17" s="2"/>
+      <c r="CQ17" s="2"/>
       <c r="CR17" s="1"/>
       <c r="CS17" s="1"/>
     </row>
-    <row r="18" spans="1:97" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2419,38 +2375,40 @@
       <c r="BG18" s="2"/>
       <c r="BH18" s="2"/>
       <c r="BI18" s="2"/>
-      <c r="BJ18" s="2"/>
-      <c r="BK18" s="2"/>
-      <c r="BL18" s="2"/>
-      <c r="BM18" s="2"/>
-      <c r="BN18" s="2"/>
-      <c r="BO18" s="2"/>
-      <c r="BP18" s="2"/>
-      <c r="BQ18" s="2"/>
-      <c r="BR18" s="2"/>
-      <c r="BS18" s="2"/>
-      <c r="BT18" s="2"/>
-      <c r="BU18" s="2"/>
-      <c r="BV18" s="2"/>
-      <c r="BW18" s="2"/>
-      <c r="BX18" s="2"/>
-      <c r="BY18" s="2"/>
-      <c r="BZ18" s="2"/>
-      <c r="CA18" s="2"/>
-      <c r="CB18" s="2"/>
-      <c r="CC18" s="2"/>
-      <c r="CD18" s="2"/>
-      <c r="CE18" s="2"/>
-      <c r="CF18" s="2"/>
-      <c r="CG18" s="2"/>
-      <c r="CH18" s="2"/>
-      <c r="CI18" s="2"/>
-      <c r="CJ18" s="2"/>
-      <c r="CK18" s="2"/>
-      <c r="CL18" s="2"/>
-      <c r="CM18" s="2"/>
-      <c r="CN18" s="2"/>
-      <c r="CO18" s="2"/>
+      <c r="BJ18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BK18" s="5"/>
+      <c r="BL18" s="5"/>
+      <c r="BM18" s="5"/>
+      <c r="BN18" s="5"/>
+      <c r="BO18" s="5"/>
+      <c r="BP18" s="5"/>
+      <c r="BQ18" s="5"/>
+      <c r="BR18" s="5"/>
+      <c r="BS18" s="5"/>
+      <c r="BT18" s="5"/>
+      <c r="BU18" s="5"/>
+      <c r="BV18" s="5"/>
+      <c r="BW18" s="5"/>
+      <c r="BX18" s="5"/>
+      <c r="BY18" s="5"/>
+      <c r="BZ18" s="5"/>
+      <c r="CA18" s="5"/>
+      <c r="CB18" s="5"/>
+      <c r="CC18" s="5"/>
+      <c r="CD18" s="5"/>
+      <c r="CE18" s="5"/>
+      <c r="CF18" s="5"/>
+      <c r="CG18" s="5"/>
+      <c r="CH18" s="5"/>
+      <c r="CI18" s="5"/>
+      <c r="CJ18" s="5"/>
+      <c r="CK18" s="5"/>
+      <c r="CL18" s="5"/>
+      <c r="CM18" s="5"/>
+      <c r="CN18" s="5"/>
+      <c r="CO18" s="5"/>
       <c r="CP18" s="2"/>
       <c r="CQ18" s="2"/>
       <c r="CR18" s="1"/>
@@ -2518,247 +2476,247 @@
       <c r="BG19" s="2"/>
       <c r="BH19" s="2"/>
       <c r="BI19" s="2"/>
-      <c r="BJ19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="BK19" s="5"/>
-      <c r="BL19" s="5"/>
-      <c r="BM19" s="5"/>
-      <c r="BN19" s="5"/>
-      <c r="BO19" s="5"/>
-      <c r="BP19" s="5"/>
-      <c r="BQ19" s="5"/>
-      <c r="BR19" s="5"/>
-      <c r="BS19" s="5"/>
-      <c r="BT19" s="5"/>
-      <c r="BU19" s="5"/>
-      <c r="BV19" s="5"/>
-      <c r="BW19" s="5"/>
-      <c r="BX19" s="5"/>
-      <c r="BY19" s="5"/>
-      <c r="BZ19" s="5"/>
-      <c r="CA19" s="5"/>
-      <c r="CB19" s="5"/>
-      <c r="CC19" s="5"/>
-      <c r="CD19" s="5"/>
-      <c r="CE19" s="5"/>
-      <c r="CF19" s="5"/>
-      <c r="CG19" s="5"/>
-      <c r="CH19" s="5"/>
-      <c r="CI19" s="5"/>
-      <c r="CJ19" s="5"/>
-      <c r="CK19" s="5"/>
-      <c r="CL19" s="5"/>
-      <c r="CM19" s="5"/>
-      <c r="CN19" s="5"/>
-      <c r="CO19" s="5"/>
+      <c r="BJ19" s="3"/>
+      <c r="BK19" s="3"/>
+      <c r="BL19" s="3"/>
+      <c r="BM19" s="3"/>
+      <c r="BN19" s="3"/>
+      <c r="BO19" s="3"/>
+      <c r="BP19" s="3"/>
+      <c r="BQ19" s="3"/>
+      <c r="BR19" s="3"/>
+      <c r="BS19" s="3"/>
+      <c r="BT19" s="3"/>
+      <c r="BU19" s="3"/>
+      <c r="BV19" s="3"/>
+      <c r="BW19" s="3"/>
+      <c r="BX19" s="3"/>
+      <c r="BY19" s="3"/>
+      <c r="BZ19" s="3"/>
+      <c r="CA19" s="3"/>
+      <c r="CB19" s="3"/>
+      <c r="CC19" s="3"/>
+      <c r="CD19" s="3"/>
+      <c r="CE19" s="3"/>
+      <c r="CF19" s="3"/>
+      <c r="CG19" s="3"/>
+      <c r="CH19" s="3"/>
+      <c r="CI19" s="3"/>
+      <c r="CJ19" s="3"/>
+      <c r="CK19" s="3"/>
+      <c r="CL19" s="3"/>
+      <c r="CM19" s="3"/>
+      <c r="CN19" s="3"/>
+      <c r="CO19" s="3"/>
       <c r="CP19" s="2"/>
       <c r="CQ19" s="2"/>
       <c r="CR19" s="1"/>
       <c r="CS19" s="1"/>
     </row>
     <row r="20" spans="1:97" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="2"/>
-      <c r="AD20" s="2"/>
-      <c r="AE20" s="2"/>
-      <c r="AF20" s="2"/>
-      <c r="AG20" s="2"/>
-      <c r="AH20" s="2"/>
-      <c r="AI20" s="2"/>
-      <c r="AJ20" s="2"/>
-      <c r="AK20" s="2"/>
-      <c r="AL20" s="2"/>
-      <c r="AM20" s="2"/>
-      <c r="AN20" s="2"/>
-      <c r="AO20" s="2"/>
-      <c r="AP20" s="2"/>
-      <c r="AQ20" s="2"/>
-      <c r="AR20" s="2"/>
-      <c r="AS20" s="2"/>
-      <c r="AT20" s="2"/>
-      <c r="AU20" s="2"/>
-      <c r="AV20" s="2"/>
-      <c r="AW20" s="2"/>
-      <c r="AX20" s="2"/>
-      <c r="AY20" s="2"/>
-      <c r="AZ20" s="2"/>
-      <c r="BA20" s="2"/>
-      <c r="BB20" s="2"/>
-      <c r="BC20" s="2"/>
-      <c r="BD20" s="2"/>
-      <c r="BE20" s="2"/>
-      <c r="BF20" s="2"/>
-      <c r="BG20" s="2"/>
-      <c r="BH20" s="2"/>
-      <c r="BI20" s="2"/>
-      <c r="BJ20" s="3"/>
-      <c r="BK20" s="3"/>
-      <c r="BL20" s="3"/>
-      <c r="BM20" s="3"/>
-      <c r="BN20" s="3"/>
-      <c r="BO20" s="3"/>
-      <c r="BP20" s="3"/>
-      <c r="BQ20" s="3"/>
-      <c r="BR20" s="3"/>
-      <c r="BS20" s="3"/>
-      <c r="BT20" s="3"/>
-      <c r="BU20" s="3"/>
-      <c r="BV20" s="3"/>
-      <c r="BW20" s="3"/>
-      <c r="BX20" s="3"/>
-      <c r="BY20" s="3"/>
-      <c r="BZ20" s="3"/>
-      <c r="CA20" s="3"/>
-      <c r="CB20" s="3"/>
-      <c r="CC20" s="3"/>
-      <c r="CD20" s="3"/>
-      <c r="CE20" s="3"/>
-      <c r="CF20" s="3"/>
-      <c r="CG20" s="3"/>
-      <c r="CH20" s="3"/>
-      <c r="CI20" s="3"/>
-      <c r="CJ20" s="3"/>
-      <c r="CK20" s="3"/>
-      <c r="CL20" s="3"/>
-      <c r="CM20" s="3"/>
-      <c r="CN20" s="3"/>
-      <c r="CO20" s="3"/>
-      <c r="CP20" s="2"/>
-      <c r="CQ20" s="2"/>
+      <c r="A20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="6"/>
+      <c r="AG20" s="6"/>
+      <c r="AH20" s="6"/>
+      <c r="AI20" s="6"/>
+      <c r="AJ20" s="6"/>
+      <c r="AK20" s="6"/>
+      <c r="AL20" s="6"/>
+      <c r="AM20" s="6"/>
+      <c r="AN20" s="6"/>
+      <c r="AO20" s="6"/>
+      <c r="AP20" s="6"/>
+      <c r="AQ20" s="6"/>
+      <c r="AR20" s="6"/>
+      <c r="AS20" s="6"/>
+      <c r="AT20" s="6"/>
+      <c r="AU20" s="6"/>
+      <c r="AV20" s="6"/>
+      <c r="AW20" s="6"/>
+      <c r="AX20" s="6"/>
+      <c r="AY20" s="6"/>
+      <c r="AZ20" s="6"/>
+      <c r="BA20" s="6"/>
+      <c r="BB20" s="6"/>
+      <c r="BC20" s="6"/>
+      <c r="BD20" s="6"/>
+      <c r="BE20" s="6"/>
+      <c r="BF20" s="6"/>
+      <c r="BG20" s="6"/>
+      <c r="BH20" s="6"/>
+      <c r="BI20" s="6"/>
+      <c r="BJ20" s="6"/>
+      <c r="BK20" s="6"/>
+      <c r="BL20" s="6"/>
+      <c r="BM20" s="6"/>
+      <c r="BN20" s="6"/>
+      <c r="BO20" s="6"/>
+      <c r="BP20" s="6"/>
+      <c r="BQ20" s="6"/>
+      <c r="BR20" s="6"/>
+      <c r="BS20" s="6"/>
+      <c r="BT20" s="6"/>
+      <c r="BU20" s="6"/>
+      <c r="BV20" s="6"/>
+      <c r="BW20" s="6"/>
+      <c r="BX20" s="6"/>
+      <c r="BY20" s="6"/>
+      <c r="BZ20" s="6"/>
+      <c r="CA20" s="6"/>
+      <c r="CB20" s="6"/>
+      <c r="CC20" s="6"/>
+      <c r="CD20" s="6"/>
+      <c r="CE20" s="6"/>
+      <c r="CF20" s="6"/>
+      <c r="CG20" s="6"/>
+      <c r="CH20" s="6"/>
+      <c r="CI20" s="6"/>
+      <c r="CJ20" s="6"/>
+      <c r="CK20" s="6"/>
+      <c r="CL20" s="6"/>
+      <c r="CM20" s="6"/>
+      <c r="CN20" s="6"/>
+      <c r="CO20" s="6"/>
+      <c r="CP20" s="6"/>
+      <c r="CQ20" s="6"/>
       <c r="CR20" s="1"/>
       <c r="CS20" s="1"/>
     </row>
     <row r="21" spans="1:97" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="6"/>
-      <c r="AB21" s="6"/>
-      <c r="AC21" s="6"/>
-      <c r="AD21" s="6"/>
-      <c r="AE21" s="6"/>
-      <c r="AF21" s="6"/>
-      <c r="AG21" s="6"/>
-      <c r="AH21" s="6"/>
-      <c r="AI21" s="6"/>
-      <c r="AJ21" s="6"/>
-      <c r="AK21" s="6"/>
-      <c r="AL21" s="6"/>
-      <c r="AM21" s="6"/>
-      <c r="AN21" s="6"/>
-      <c r="AO21" s="6"/>
-      <c r="AP21" s="6"/>
-      <c r="AQ21" s="6"/>
-      <c r="AR21" s="6"/>
-      <c r="AS21" s="6"/>
-      <c r="AT21" s="6"/>
-      <c r="AU21" s="6"/>
-      <c r="AV21" s="6"/>
-      <c r="AW21" s="6"/>
-      <c r="AX21" s="6"/>
-      <c r="AY21" s="6"/>
-      <c r="AZ21" s="6"/>
-      <c r="BA21" s="6"/>
-      <c r="BB21" s="6"/>
-      <c r="BC21" s="6"/>
-      <c r="BD21" s="6"/>
-      <c r="BE21" s="6"/>
-      <c r="BF21" s="6"/>
-      <c r="BG21" s="6"/>
-      <c r="BH21" s="6"/>
-      <c r="BI21" s="6"/>
-      <c r="BJ21" s="6"/>
-      <c r="BK21" s="6"/>
-      <c r="BL21" s="6"/>
-      <c r="BM21" s="6"/>
-      <c r="BN21" s="6"/>
-      <c r="BO21" s="6"/>
-      <c r="BP21" s="6"/>
-      <c r="BQ21" s="6"/>
-      <c r="BR21" s="6"/>
-      <c r="BS21" s="6"/>
-      <c r="BT21" s="6"/>
-      <c r="BU21" s="6"/>
-      <c r="BV21" s="6"/>
-      <c r="BW21" s="6"/>
-      <c r="BX21" s="6"/>
-      <c r="BY21" s="6"/>
-      <c r="BZ21" s="6"/>
-      <c r="CA21" s="6"/>
-      <c r="CB21" s="6"/>
-      <c r="CC21" s="6"/>
-      <c r="CD21" s="6"/>
-      <c r="CE21" s="6"/>
-      <c r="CF21" s="6"/>
-      <c r="CG21" s="6"/>
-      <c r="CH21" s="6"/>
-      <c r="CI21" s="6"/>
-      <c r="CJ21" s="6"/>
-      <c r="CK21" s="6"/>
-      <c r="CL21" s="6"/>
-      <c r="CM21" s="6"/>
-      <c r="CN21" s="6"/>
-      <c r="CO21" s="6"/>
-      <c r="CP21" s="6"/>
-      <c r="CQ21" s="6"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="2"/>
+      <c r="AQ21" s="2"/>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="2"/>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="2"/>
+      <c r="AW21" s="2"/>
+      <c r="AX21" s="2"/>
+      <c r="AY21" s="2"/>
+      <c r="AZ21" s="2"/>
+      <c r="BA21" s="2"/>
+      <c r="BB21" s="2"/>
+      <c r="BC21" s="2"/>
+      <c r="BD21" s="2"/>
+      <c r="BE21" s="2"/>
+      <c r="BF21" s="2"/>
+      <c r="BG21" s="2"/>
+      <c r="BH21" s="2"/>
+      <c r="BI21" s="2"/>
+      <c r="BJ21" s="2"/>
+      <c r="BK21" s="2"/>
+      <c r="BL21" s="2"/>
+      <c r="BM21" s="2"/>
+      <c r="BN21" s="2"/>
+      <c r="BO21" s="2"/>
+      <c r="BP21" s="2"/>
+      <c r="BQ21" s="2"/>
+      <c r="BR21" s="2"/>
+      <c r="BS21" s="2"/>
+      <c r="BT21" s="2"/>
+      <c r="BU21" s="2"/>
+      <c r="BV21" s="2"/>
+      <c r="BW21" s="2"/>
+      <c r="BX21" s="2"/>
+      <c r="BY21" s="2"/>
+      <c r="BZ21" s="2"/>
+      <c r="CA21" s="2"/>
+      <c r="CB21" s="2"/>
+      <c r="CC21" s="2"/>
+      <c r="CD21" s="2"/>
+      <c r="CE21" s="2"/>
+      <c r="CF21" s="2"/>
+      <c r="CG21" s="2"/>
+      <c r="CH21" s="2"/>
+      <c r="CI21" s="2"/>
+      <c r="CJ21" s="2"/>
+      <c r="CK21" s="2"/>
+      <c r="CL21" s="2"/>
+      <c r="CM21" s="2"/>
+      <c r="CN21" s="2"/>
+      <c r="CO21" s="2"/>
+      <c r="CP21" s="2"/>
+      <c r="CQ21" s="2"/>
       <c r="CR21" s="1"/>
       <c r="CS21" s="1"/>
     </row>
     <row r="22" spans="1:97" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
+      <c r="A22" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -2856,428 +2814,436 @@
       <c r="CR22" s="1"/>
       <c r="CS22" s="1"/>
     </row>
-    <row r="23" spans="1:97" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+    <row r="23" ht="75.0" customHeight="true">
+      <c r="A23" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
-      <c r="AB23" s="2"/>
-      <c r="AC23" s="2"/>
-      <c r="AD23" s="2"/>
-      <c r="AE23" s="2"/>
-      <c r="AF23" s="2"/>
-      <c r="AG23" s="2"/>
-      <c r="AH23" s="2"/>
-      <c r="AI23" s="2"/>
-      <c r="AJ23" s="2"/>
-      <c r="AK23" s="2"/>
-      <c r="AL23" s="2"/>
-      <c r="AM23" s="2"/>
-      <c r="AN23" s="2"/>
-      <c r="AO23" s="2"/>
-      <c r="AP23" s="2"/>
-      <c r="AQ23" s="2"/>
-      <c r="AR23" s="2"/>
-      <c r="AS23" s="2"/>
-      <c r="AT23" s="2"/>
-      <c r="AU23" s="2"/>
-      <c r="AV23" s="2"/>
-      <c r="AW23" s="2"/>
-      <c r="AX23" s="2"/>
-      <c r="AY23" s="2"/>
-      <c r="AZ23" s="2"/>
-      <c r="BA23" s="2"/>
-      <c r="BB23" s="2"/>
-      <c r="BC23" s="2"/>
-      <c r="BD23" s="2"/>
-      <c r="BE23" s="2"/>
-      <c r="BF23" s="2"/>
-      <c r="BG23" s="2"/>
-      <c r="BH23" s="2"/>
-      <c r="BI23" s="2"/>
-      <c r="BJ23" s="2"/>
-      <c r="BK23" s="2"/>
-      <c r="BL23" s="2"/>
-      <c r="BM23" s="2"/>
-      <c r="BN23" s="2"/>
-      <c r="BO23" s="2"/>
-      <c r="BP23" s="2"/>
-      <c r="BQ23" s="2"/>
-      <c r="BR23" s="2"/>
-      <c r="BS23" s="2"/>
-      <c r="BT23" s="2"/>
-      <c r="BU23" s="2"/>
-      <c r="BV23" s="2"/>
-      <c r="BW23" s="2"/>
-      <c r="BX23" s="2"/>
-      <c r="BY23" s="2"/>
-      <c r="BZ23" s="2"/>
-      <c r="CA23" s="2"/>
-      <c r="CB23" s="2"/>
-      <c r="CC23" s="2"/>
-      <c r="CD23" s="2"/>
-      <c r="CE23" s="2"/>
-      <c r="CF23" s="2"/>
-      <c r="CG23" s="2"/>
-      <c r="CH23" s="2"/>
-      <c r="CI23" s="2"/>
-      <c r="CJ23" s="2"/>
-      <c r="CK23" s="2"/>
-      <c r="CL23" s="2"/>
-      <c r="CM23" s="2"/>
-      <c r="CN23" s="2"/>
-      <c r="CO23" s="2"/>
-      <c r="CP23" s="2"/>
-      <c r="CQ23" s="2"/>
-      <c r="CR23" s="1"/>
-      <c r="CS23" s="1"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="12"/>
+      <c r="AC23" s="12"/>
+      <c r="AD23" s="12"/>
+      <c r="AE23" s="12"/>
+      <c r="AF23" s="12"/>
+      <c r="AG23" s="12"/>
+      <c r="AH23" s="12"/>
+      <c r="AI23" s="12"/>
+      <c r="AJ23" s="12"/>
+      <c r="AK23" s="12"/>
+      <c r="AL23" s="12"/>
+      <c r="AM23" s="12"/>
+      <c r="AN23" s="12"/>
+      <c r="AO23" s="12"/>
+      <c r="AP23" s="12"/>
+      <c r="AQ23" s="12"/>
+      <c r="AR23" s="12"/>
+      <c r="AS23" s="12"/>
+      <c r="AT23" s="12"/>
+      <c r="AU23" s="12"/>
+      <c r="AV23" s="12"/>
+      <c r="AW23" s="12"/>
+      <c r="AX23" s="12"/>
+      <c r="AY23" s="12"/>
+      <c r="AZ23" s="12"/>
+      <c r="BA23" s="12"/>
+      <c r="BB23" s="12"/>
+      <c r="BC23" s="12"/>
+      <c r="BD23" s="12"/>
+      <c r="BE23" s="12"/>
+      <c r="BF23" s="12"/>
+      <c r="BG23" s="12"/>
+      <c r="BH23" s="12"/>
+      <c r="BI23" s="12"/>
+      <c r="BJ23" s="12"/>
+      <c r="BK23" s="12"/>
+      <c r="BL23" s="12"/>
+      <c r="BM23" s="12"/>
+      <c r="BN23" s="12"/>
+      <c r="BO23" s="12"/>
+      <c r="BP23" s="12"/>
+      <c r="BQ23" s="12"/>
+      <c r="BR23" s="12"/>
+      <c r="BS23" s="12"/>
+      <c r="BT23" s="12"/>
+      <c r="BU23" s="12"/>
+      <c r="BV23" s="12"/>
+      <c r="BW23" s="12"/>
+      <c r="BX23" s="12"/>
+      <c r="BY23" s="12"/>
+      <c r="BZ23" s="12"/>
+      <c r="CA23" s="12"/>
+      <c r="CB23" s="12"/>
+      <c r="CC23" s="12"/>
+      <c r="CD23" s="12"/>
+      <c r="CE23" s="12"/>
+      <c r="CF23" s="12"/>
+      <c r="CG23" s="12"/>
+      <c r="CH23" s="12"/>
+      <c r="CI23" s="12"/>
+      <c r="CJ23" s="12"/>
+      <c r="CK23" s="12"/>
+      <c r="CL23" s="12"/>
+      <c r="CM23" s="12"/>
+      <c r="CN23" s="12"/>
+      <c r="CO23" s="12"/>
+      <c r="CP23" s="12"/>
+      <c r="CQ23" s="12" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="24" ht="75.0" customHeight="true">
-      <c r="A24" s="12" t="s">
+    <row r="24" ht="30.0" customHeight="true">
+      <c r="A24" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="13"/>
+      <c r="AC24" s="13"/>
+      <c r="AD24" s="13"/>
+      <c r="AE24" s="13"/>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="13"/>
+      <c r="AH24" s="13"/>
+      <c r="AI24" s="13"/>
+      <c r="AJ24" s="13"/>
+      <c r="AK24" s="13"/>
+      <c r="AL24" s="13"/>
+      <c r="AM24" s="13"/>
+      <c r="AN24" s="13"/>
+      <c r="AO24" s="13"/>
+      <c r="AP24" s="13"/>
+      <c r="AQ24" s="13"/>
+      <c r="AR24" s="13"/>
+      <c r="AS24" s="13"/>
+      <c r="AT24" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AU24" s="13"/>
+      <c r="AV24" s="13"/>
+      <c r="AW24" s="13"/>
+      <c r="AX24" s="13"/>
+      <c r="AY24" s="13"/>
+      <c r="AZ24" s="13"/>
+      <c r="BA24" s="13"/>
+      <c r="BB24" s="13"/>
+      <c r="BC24" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="BD24" s="13"/>
+      <c r="BE24" s="13"/>
+      <c r="BF24" s="13"/>
+      <c r="BG24" s="13"/>
+      <c r="BH24" s="13"/>
+      <c r="BI24" s="13"/>
+      <c r="BJ24" s="13"/>
+      <c r="BK24" s="13"/>
+      <c r="BL24" s="13"/>
+      <c r="BM24" s="13"/>
+      <c r="BN24" s="13"/>
+      <c r="BO24" s="13"/>
+      <c r="BP24" s="13"/>
+      <c r="BQ24" s="13"/>
+      <c r="BR24" s="13"/>
+      <c r="BS24" s="13"/>
+      <c r="BT24" s="13"/>
+      <c r="BU24" s="13"/>
+      <c r="BV24" s="13"/>
+      <c r="BW24" s="13"/>
+      <c r="BX24" s="13"/>
+      <c r="BY24" s="13"/>
+      <c r="BZ24" s="13"/>
+      <c r="CA24" s="13"/>
+      <c r="CB24" s="13"/>
+      <c r="CC24" s="13"/>
+      <c r="CD24" s="13"/>
+      <c r="CE24" s="13"/>
+      <c r="CF24" s="13"/>
+      <c r="CG24" s="13"/>
+      <c r="CH24" s="13"/>
+      <c r="CI24" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="CJ24" s="13"/>
+      <c r="CK24" s="13"/>
+      <c r="CL24" s="13"/>
+      <c r="CM24" s="13"/>
+      <c r="CN24" s="13"/>
+      <c r="CO24" s="13"/>
+      <c r="CP24" s="13"/>
+      <c r="CQ24" s="13"/>
+    </row>
+    <row r="25" ht="15.0" customHeight="true">
+      <c r="A25" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="14"/>
+      <c r="AF25" s="14"/>
+      <c r="AG25" s="14"/>
+      <c r="AH25" s="14"/>
+      <c r="AI25" s="14"/>
+      <c r="AJ25" s="14"/>
+      <c r="AK25" s="14"/>
+      <c r="AL25" s="14"/>
+      <c r="AM25" s="14"/>
+      <c r="AN25" s="14"/>
+      <c r="AO25" s="14"/>
+      <c r="AP25" s="14"/>
+      <c r="AQ25" s="14"/>
+      <c r="AR25" s="14"/>
+      <c r="AS25" s="14"/>
+      <c r="AT25" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU25" s="14"/>
+      <c r="AV25" s="14"/>
+      <c r="AW25" s="14"/>
+      <c r="AX25" s="14"/>
+      <c r="AY25" s="14"/>
+      <c r="AZ25" s="14"/>
+      <c r="BA25" s="14"/>
+      <c r="BB25" s="14"/>
+      <c r="BC25" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="12"/>
-      <c r="AA24" s="12"/>
-      <c r="AB24" s="12"/>
-      <c r="AC24" s="12"/>
-      <c r="AD24" s="12"/>
-      <c r="AE24" s="12"/>
-      <c r="AF24" s="12"/>
-      <c r="AG24" s="12"/>
-      <c r="AH24" s="12"/>
-      <c r="AI24" s="12"/>
-      <c r="AJ24" s="12"/>
-      <c r="AK24" s="12"/>
-      <c r="AL24" s="12"/>
-      <c r="AM24" s="12"/>
-      <c r="AN24" s="12"/>
-      <c r="AO24" s="12"/>
-      <c r="AP24" s="12"/>
-      <c r="AQ24" s="12"/>
-      <c r="AR24" s="12"/>
-      <c r="AS24" s="12"/>
-      <c r="AT24" s="12"/>
-      <c r="AU24" s="12"/>
-      <c r="AV24" s="12"/>
-      <c r="AW24" s="12"/>
-      <c r="AX24" s="12"/>
-      <c r="AY24" s="12"/>
-      <c r="AZ24" s="12"/>
-      <c r="BA24" s="12"/>
-      <c r="BB24" s="12"/>
-      <c r="BC24" s="12"/>
-      <c r="BD24" s="12"/>
-      <c r="BE24" s="12"/>
-      <c r="BF24" s="12"/>
-      <c r="BG24" s="12"/>
-      <c r="BH24" s="12"/>
-      <c r="BI24" s="12"/>
-      <c r="BJ24" s="12"/>
-      <c r="BK24" s="12"/>
-      <c r="BL24" s="12"/>
-      <c r="BM24" s="12"/>
-      <c r="BN24" s="12"/>
-      <c r="BO24" s="12"/>
-      <c r="BP24" s="12"/>
-      <c r="BQ24" s="12"/>
-      <c r="BR24" s="12"/>
-      <c r="BS24" s="12"/>
-      <c r="BT24" s="12"/>
-      <c r="BU24" s="12"/>
-      <c r="BV24" s="12"/>
-      <c r="BW24" s="12"/>
-      <c r="BX24" s="12"/>
-      <c r="BY24" s="12"/>
-      <c r="BZ24" s="12"/>
-      <c r="CA24" s="12"/>
-      <c r="CB24" s="12"/>
-      <c r="CC24" s="12"/>
-      <c r="CD24" s="12"/>
-      <c r="CE24" s="12"/>
-      <c r="CF24" s="12"/>
-      <c r="CG24" s="12"/>
-      <c r="CH24" s="12"/>
-      <c r="CI24" s="12"/>
-      <c r="CJ24" s="12"/>
-      <c r="CK24" s="12"/>
-      <c r="CL24" s="12"/>
-      <c r="CM24" s="12"/>
-      <c r="CN24" s="12"/>
-      <c r="CO24" s="12"/>
-      <c r="CP24" s="12"/>
-      <c r="CQ24" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" ht="30.0" customHeight="true">
-      <c r="A25" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="13"/>
-      <c r="Y25" s="13"/>
-      <c r="Z25" s="13"/>
-      <c r="AA25" s="13"/>
-      <c r="AB25" s="13"/>
-      <c r="AC25" s="13"/>
-      <c r="AD25" s="13"/>
-      <c r="AE25" s="13"/>
-      <c r="AF25" s="13"/>
-      <c r="AG25" s="13"/>
-      <c r="AH25" s="13"/>
-      <c r="AI25" s="13"/>
-      <c r="AJ25" s="13"/>
-      <c r="AK25" s="13"/>
-      <c r="AL25" s="13"/>
-      <c r="AM25" s="13"/>
-      <c r="AN25" s="13"/>
-      <c r="AO25" s="13"/>
-      <c r="AP25" s="13"/>
-      <c r="AQ25" s="13"/>
-      <c r="AR25" s="13"/>
-      <c r="AS25" s="13"/>
-      <c r="AT25" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="AU25" s="13"/>
-      <c r="AV25" s="13"/>
-      <c r="AW25" s="13"/>
-      <c r="AX25" s="13"/>
-      <c r="AY25" s="13"/>
-      <c r="AZ25" s="13"/>
-      <c r="BA25" s="13"/>
-      <c r="BB25" s="13"/>
-      <c r="BC25" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="BD25" s="13"/>
-      <c r="BE25" s="13"/>
-      <c r="BF25" s="13"/>
-      <c r="BG25" s="13"/>
-      <c r="BH25" s="13"/>
-      <c r="BI25" s="13"/>
-      <c r="BJ25" s="13"/>
-      <c r="BK25" s="13"/>
-      <c r="BL25" s="13"/>
-      <c r="BM25" s="13"/>
-      <c r="BN25" s="13"/>
-      <c r="BO25" s="13"/>
-      <c r="BP25" s="13"/>
-      <c r="BQ25" s="13"/>
-      <c r="BR25" s="13"/>
-      <c r="BS25" s="13"/>
-      <c r="BT25" s="13"/>
-      <c r="BU25" s="13"/>
-      <c r="BV25" s="13"/>
-      <c r="BW25" s="13"/>
-      <c r="BX25" s="13"/>
-      <c r="BY25" s="13"/>
-      <c r="BZ25" s="13"/>
-      <c r="CA25" s="13"/>
-      <c r="CB25" s="13"/>
-      <c r="CC25" s="13"/>
-      <c r="CD25" s="13"/>
-      <c r="CE25" s="13"/>
-      <c r="CF25" s="13"/>
-      <c r="CG25" s="13"/>
-      <c r="CH25" s="13"/>
-      <c r="CI25" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="CJ25" s="13"/>
-      <c r="CK25" s="13"/>
-      <c r="CL25" s="13"/>
-      <c r="CM25" s="13"/>
-      <c r="CN25" s="13"/>
-      <c r="CO25" s="13"/>
-      <c r="CP25" s="13"/>
-      <c r="CQ25" s="13"/>
+      <c r="BD25" s="14"/>
+      <c r="BE25" s="14"/>
+      <c r="BF25" s="14"/>
+      <c r="BG25" s="14"/>
+      <c r="BH25" s="14"/>
+      <c r="BI25" s="14"/>
+      <c r="BJ25" s="14"/>
+      <c r="BK25" s="14"/>
+      <c r="BL25" s="14"/>
+      <c r="BM25" s="14"/>
+      <c r="BN25" s="14"/>
+      <c r="BO25" s="14"/>
+      <c r="BP25" s="14"/>
+      <c r="BQ25" s="14"/>
+      <c r="BR25" s="14"/>
+      <c r="BS25" s="14"/>
+      <c r="BT25" s="14"/>
+      <c r="BU25" s="14"/>
+      <c r="BV25" s="14"/>
+      <c r="BW25" s="14"/>
+      <c r="BX25" s="14"/>
+      <c r="BY25" s="14"/>
+      <c r="BZ25" s="14"/>
+      <c r="CA25" s="14"/>
+      <c r="CB25" s="14"/>
+      <c r="CC25" s="14"/>
+      <c r="CD25" s="14"/>
+      <c r="CE25" s="14"/>
+      <c r="CF25" s="14"/>
+      <c r="CG25" s="14"/>
+      <c r="CH25" s="14"/>
+      <c r="CI25" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="CJ25" s="14"/>
+      <c r="CK25" s="14"/>
+      <c r="CL25" s="14"/>
+      <c r="CM25" s="14"/>
+      <c r="CN25" s="14"/>
+      <c r="CO25" s="14"/>
+      <c r="CP25" s="14"/>
+      <c r="CQ25" s="14"/>
     </row>
     <row r="26" ht="15.0" customHeight="true">
-      <c r="A26" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
-      <c r="Y26" s="14"/>
-      <c r="Z26" s="14"/>
-      <c r="AA26" s="14"/>
-      <c r="AB26" s="14"/>
-      <c r="AC26" s="14"/>
-      <c r="AD26" s="14"/>
-      <c r="AE26" s="14"/>
-      <c r="AF26" s="14"/>
-      <c r="AG26" s="14"/>
-      <c r="AH26" s="14"/>
-      <c r="AI26" s="14"/>
-      <c r="AJ26" s="14"/>
-      <c r="AK26" s="14"/>
-      <c r="AL26" s="14"/>
-      <c r="AM26" s="14"/>
-      <c r="AN26" s="14"/>
-      <c r="AO26" s="14"/>
-      <c r="AP26" s="14"/>
-      <c r="AQ26" s="14"/>
-      <c r="AR26" s="14"/>
-      <c r="AS26" s="14"/>
-      <c r="AT26" s="14" t="s">
+      <c r="A26" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AU26" s="14"/>
-      <c r="AV26" s="14"/>
-      <c r="AW26" s="14"/>
-      <c r="AX26" s="14"/>
-      <c r="AY26" s="14"/>
-      <c r="AZ26" s="14"/>
-      <c r="BA26" s="14"/>
-      <c r="BB26" s="14"/>
-      <c r="BC26" s="14" t="s">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="BD26" s="14"/>
-      <c r="BE26" s="14"/>
-      <c r="BF26" s="14"/>
-      <c r="BG26" s="14"/>
-      <c r="BH26" s="14"/>
-      <c r="BI26" s="14"/>
-      <c r="BJ26" s="14"/>
-      <c r="BK26" s="14"/>
-      <c r="BL26" s="14"/>
-      <c r="BM26" s="14"/>
-      <c r="BN26" s="14"/>
-      <c r="BO26" s="14"/>
-      <c r="BP26" s="14"/>
-      <c r="BQ26" s="14"/>
-      <c r="BR26" s="14"/>
-      <c r="BS26" s="14"/>
-      <c r="BT26" s="14"/>
-      <c r="BU26" s="14"/>
-      <c r="BV26" s="14"/>
-      <c r="BW26" s="14"/>
-      <c r="BX26" s="14"/>
-      <c r="BY26" s="14"/>
-      <c r="BZ26" s="14"/>
-      <c r="CA26" s="14"/>
-      <c r="CB26" s="14"/>
-      <c r="CC26" s="14"/>
-      <c r="CD26" s="14"/>
-      <c r="CE26" s="14"/>
-      <c r="CF26" s="14"/>
-      <c r="CG26" s="14"/>
-      <c r="CH26" s="14"/>
-      <c r="CI26" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="CJ26" s="14"/>
-      <c r="CK26" s="14"/>
-      <c r="CL26" s="14"/>
-      <c r="CM26" s="14"/>
-      <c r="CN26" s="14"/>
-      <c r="CO26" s="14"/>
-      <c r="CP26" s="14"/>
-      <c r="CQ26" s="14"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="15"/>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="15"/>
+      <c r="AD26" s="15"/>
+      <c r="AE26" s="15"/>
+      <c r="AF26" s="15"/>
+      <c r="AG26" s="15"/>
+      <c r="AH26" s="15"/>
+      <c r="AI26" s="15"/>
+      <c r="AJ26" s="15"/>
+      <c r="AK26" s="15"/>
+      <c r="AL26" s="15"/>
+      <c r="AM26" s="15"/>
+      <c r="AN26" s="15"/>
+      <c r="AO26" s="15"/>
+      <c r="AP26" s="15"/>
+      <c r="AQ26" s="15"/>
+      <c r="AR26" s="15"/>
+      <c r="AS26" s="15"/>
+      <c r="AT26" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AU26" s="15"/>
+      <c r="AV26" s="15"/>
+      <c r="AW26" s="15"/>
+      <c r="AX26" s="15"/>
+      <c r="AY26" s="15"/>
+      <c r="AZ26" s="15"/>
+      <c r="BA26" s="15"/>
+      <c r="BB26" s="15"/>
+      <c r="BC26" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="BD26" s="15"/>
+      <c r="BE26" s="15"/>
+      <c r="BF26" s="15"/>
+      <c r="BG26" s="15"/>
+      <c r="BH26" s="15"/>
+      <c r="BI26" s="15"/>
+      <c r="BJ26" s="15"/>
+      <c r="BK26" s="15"/>
+      <c r="BL26" s="15"/>
+      <c r="BM26" s="15"/>
+      <c r="BN26" s="15"/>
+      <c r="BO26" s="15"/>
+      <c r="BP26" s="15"/>
+      <c r="BQ26" s="15"/>
+      <c r="BR26" s="15"/>
+      <c r="BS26" s="15"/>
+      <c r="BT26" s="15"/>
+      <c r="BU26" s="15"/>
+      <c r="BV26" s="15"/>
+      <c r="BW26" s="15"/>
+      <c r="BX26" s="15"/>
+      <c r="BY26" s="15"/>
+      <c r="BZ26" s="15"/>
+      <c r="CA26" s="15"/>
+      <c r="CB26" s="15"/>
+      <c r="CC26" s="15"/>
+      <c r="CD26" s="15"/>
+      <c r="CE26" s="15"/>
+      <c r="CF26" s="15"/>
+      <c r="CG26" s="15"/>
+      <c r="CH26" s="15"/>
+      <c r="CI26" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="CJ26" s="15"/>
+      <c r="CK26" s="15"/>
+      <c r="CL26" s="15"/>
+      <c r="CM26" s="15"/>
+      <c r="CN26" s="15"/>
+      <c r="CO26" s="15"/>
+      <c r="CP26" s="15"/>
+      <c r="CQ26" s="15"/>
     </row>
     <row r="27">
-      <c r="A27" s="15"/>
+      <c r="A27" s="16"/>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -3373,830 +3339,301 @@
       <c r="CP27"/>
       <c r="CQ27"/>
     </row>
-    <row r="28" ht="75.0" customHeight="true">
-      <c r="A28" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="16"/>
-      <c r="X28" s="16"/>
-      <c r="Y28" s="16"/>
-      <c r="Z28" s="16"/>
-      <c r="AA28" s="16"/>
-      <c r="AB28" s="16"/>
-      <c r="AC28" s="16"/>
-      <c r="AD28" s="16"/>
-      <c r="AE28" s="16"/>
-      <c r="AF28" s="16"/>
-      <c r="AG28" s="16"/>
-      <c r="AH28" s="16"/>
-      <c r="AI28" s="16"/>
-      <c r="AJ28" s="16"/>
-      <c r="AK28" s="16"/>
-      <c r="AL28" s="16"/>
-      <c r="AM28" s="16"/>
-      <c r="AN28" s="16"/>
-      <c r="AO28" s="16"/>
-      <c r="AP28" s="16"/>
-      <c r="AQ28" s="16"/>
-      <c r="AR28" s="16"/>
-      <c r="AS28" s="16"/>
-      <c r="AT28" s="16"/>
-      <c r="AU28" s="16"/>
-      <c r="AV28" s="16"/>
-      <c r="AW28" s="16"/>
-      <c r="AX28" s="16"/>
-      <c r="AY28" s="16"/>
-      <c r="AZ28" s="16"/>
-      <c r="BA28" s="16"/>
-      <c r="BB28" s="16"/>
-      <c r="BC28" s="16"/>
-      <c r="BD28" s="16"/>
-      <c r="BE28" s="16"/>
-      <c r="BF28" s="16"/>
-      <c r="BG28" s="16"/>
-      <c r="BH28" s="16"/>
-      <c r="BI28" s="16"/>
-      <c r="BJ28" s="16"/>
-      <c r="BK28" s="16"/>
-      <c r="BL28" s="16"/>
-      <c r="BM28" s="16"/>
-      <c r="BN28" s="16"/>
-      <c r="BO28" s="16"/>
-      <c r="BP28" s="16"/>
-      <c r="BQ28" s="16"/>
-      <c r="BR28" s="16"/>
-      <c r="BS28" s="16"/>
-      <c r="BT28" s="16"/>
-      <c r="BU28" s="16"/>
-      <c r="BV28" s="16"/>
-      <c r="BW28" s="16"/>
-      <c r="BX28" s="16"/>
-      <c r="BY28" s="16"/>
-      <c r="BZ28" s="16"/>
-      <c r="CA28" s="16"/>
-      <c r="CB28" s="16"/>
-      <c r="CC28" s="16"/>
-      <c r="CD28" s="16"/>
-      <c r="CE28" s="16"/>
-      <c r="CF28" s="16"/>
-      <c r="CG28" s="16"/>
-      <c r="CH28" s="16"/>
-      <c r="CI28" s="16"/>
-      <c r="CJ28" s="16"/>
-      <c r="CK28" s="16"/>
-      <c r="CL28" s="16"/>
-      <c r="CM28" s="16"/>
-      <c r="CN28" s="16"/>
-      <c r="CO28" s="16"/>
-      <c r="CP28" s="16"/>
-      <c r="CQ28" s="16" t="s">
-        <v>22</v>
-      </c>
+    <row r="28">
+      <c r="A28" s="17"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28"/>
+      <c r="AB28"/>
+      <c r="AC28"/>
+      <c r="AD28"/>
+      <c r="AE28"/>
+      <c r="AF28"/>
+      <c r="AG28"/>
+      <c r="AH28"/>
+      <c r="AI28"/>
+      <c r="AJ28"/>
+      <c r="AK28"/>
+      <c r="AL28"/>
+      <c r="AM28"/>
+      <c r="AN28"/>
+      <c r="AO28"/>
+      <c r="AP28"/>
+      <c r="AQ28"/>
+      <c r="AR28"/>
+      <c r="AS28"/>
+      <c r="AT28"/>
+      <c r="AU28"/>
+      <c r="AV28"/>
+      <c r="AW28"/>
+      <c r="AX28"/>
+      <c r="AY28"/>
+      <c r="AZ28"/>
+      <c r="BA28"/>
+      <c r="BB28"/>
+      <c r="BC28"/>
+      <c r="BD28"/>
+      <c r="BE28"/>
+      <c r="BF28"/>
+      <c r="BG28"/>
+      <c r="BH28"/>
+      <c r="BI28"/>
+      <c r="BJ28"/>
+      <c r="BK28"/>
+      <c r="BL28"/>
+      <c r="BM28"/>
+      <c r="BN28"/>
+      <c r="BO28"/>
+      <c r="BP28"/>
+      <c r="BQ28"/>
+      <c r="BR28"/>
+      <c r="BS28"/>
+      <c r="BT28"/>
+      <c r="BU28"/>
+      <c r="BV28"/>
+      <c r="BW28"/>
+      <c r="BX28"/>
+      <c r="BY28"/>
+      <c r="BZ28"/>
+      <c r="CA28"/>
+      <c r="CB28"/>
+      <c r="CC28"/>
+      <c r="CD28"/>
+      <c r="CE28"/>
+      <c r="CF28"/>
+      <c r="CG28"/>
+      <c r="CH28"/>
+      <c r="CI28"/>
+      <c r="CJ28"/>
+      <c r="CK28"/>
+      <c r="CL28"/>
+      <c r="CM28"/>
+      <c r="CN28"/>
+      <c r="CO28"/>
+      <c r="CP28"/>
+      <c r="CQ28"/>
     </row>
-    <row r="29" ht="30.0" customHeight="true">
-      <c r="A29" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
-      <c r="V29" s="17"/>
-      <c r="W29" s="17"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
-      <c r="Z29" s="17"/>
-      <c r="AA29" s="17"/>
-      <c r="AB29" s="17"/>
-      <c r="AC29" s="17"/>
-      <c r="AD29" s="17"/>
-      <c r="AE29" s="17"/>
-      <c r="AF29" s="17"/>
-      <c r="AG29" s="17"/>
-      <c r="AH29" s="17"/>
-      <c r="AI29" s="17"/>
-      <c r="AJ29" s="17"/>
-      <c r="AK29" s="17"/>
-      <c r="AL29" s="17"/>
-      <c r="AM29" s="17"/>
-      <c r="AN29" s="17"/>
-      <c r="AO29" s="17"/>
-      <c r="AP29" s="17"/>
-      <c r="AQ29" s="17"/>
-      <c r="AR29" s="17"/>
-      <c r="AS29" s="17"/>
-      <c r="AT29" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="AU29" s="17"/>
-      <c r="AV29" s="17"/>
-      <c r="AW29" s="17"/>
-      <c r="AX29" s="17"/>
-      <c r="AY29" s="17"/>
-      <c r="AZ29" s="17"/>
-      <c r="BA29" s="17"/>
-      <c r="BB29" s="17"/>
-      <c r="BC29" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="BD29" s="17"/>
-      <c r="BE29" s="17"/>
-      <c r="BF29" s="17"/>
-      <c r="BG29" s="17"/>
-      <c r="BH29" s="17"/>
-      <c r="BI29" s="17"/>
-      <c r="BJ29" s="17"/>
-      <c r="BK29" s="17"/>
-      <c r="BL29" s="17"/>
-      <c r="BM29" s="17"/>
-      <c r="BN29" s="17"/>
-      <c r="BO29" s="17"/>
-      <c r="BP29" s="17"/>
-      <c r="BQ29" s="17"/>
-      <c r="BR29" s="17"/>
-      <c r="BS29" s="17"/>
-      <c r="BT29" s="17"/>
-      <c r="BU29" s="17"/>
-      <c r="BV29" s="17"/>
-      <c r="BW29" s="17"/>
-      <c r="BX29" s="17"/>
-      <c r="BY29" s="17"/>
-      <c r="BZ29" s="17"/>
-      <c r="CA29" s="17"/>
-      <c r="CB29" s="17"/>
-      <c r="CC29" s="17"/>
-      <c r="CD29" s="17"/>
-      <c r="CE29" s="17"/>
-      <c r="CF29" s="17"/>
-      <c r="CG29" s="17"/>
-      <c r="CH29" s="17"/>
-      <c r="CI29" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="CJ29" s="17"/>
-      <c r="CK29" s="17"/>
-      <c r="CL29" s="17"/>
-      <c r="CM29" s="17"/>
-      <c r="CN29" s="17"/>
-      <c r="CO29" s="17"/>
-      <c r="CP29" s="17"/>
-      <c r="CQ29" s="17"/>
+    <row r="29">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29"/>
+      <c r="Y29"/>
+      <c r="Z29"/>
+      <c r="AA29"/>
+      <c r="AB29"/>
+      <c r="AC29"/>
+      <c r="AD29"/>
+      <c r="AE29"/>
+      <c r="AF29"/>
+      <c r="AG29"/>
+      <c r="AH29"/>
+      <c r="AI29"/>
+      <c r="AJ29"/>
+      <c r="AK29"/>
+      <c r="AL29"/>
+      <c r="AM29"/>
+      <c r="AN29"/>
+      <c r="AO29"/>
+      <c r="AP29"/>
+      <c r="AQ29"/>
+      <c r="AR29"/>
+      <c r="AS29"/>
+      <c r="AT29"/>
+      <c r="AU29"/>
+      <c r="AV29"/>
+      <c r="AW29"/>
+      <c r="AX29"/>
+      <c r="AY29"/>
+      <c r="AZ29"/>
+      <c r="BA29"/>
+      <c r="BB29"/>
+      <c r="BC29"/>
+      <c r="BD29"/>
+      <c r="BE29"/>
+      <c r="BF29"/>
+      <c r="BG29"/>
+      <c r="BH29"/>
+      <c r="BI29"/>
+      <c r="BJ29"/>
+      <c r="BK29"/>
+      <c r="BL29"/>
+      <c r="BM29"/>
+      <c r="BN29"/>
+      <c r="BO29"/>
+      <c r="BP29"/>
+      <c r="BQ29"/>
+      <c r="BR29"/>
+      <c r="BS29"/>
+      <c r="BT29"/>
+      <c r="BU29"/>
+      <c r="BV29"/>
+      <c r="BW29"/>
+      <c r="BX29"/>
+      <c r="BY29"/>
+      <c r="BZ29"/>
+      <c r="CA29"/>
+      <c r="CB29"/>
+      <c r="CC29"/>
+      <c r="CD29"/>
+      <c r="CE29"/>
+      <c r="CF29"/>
+      <c r="CG29"/>
+      <c r="CH29"/>
+      <c r="CI29"/>
+      <c r="CJ29"/>
+      <c r="CK29"/>
+      <c r="CL29"/>
+      <c r="CM29"/>
+      <c r="CN29"/>
+      <c r="CO29"/>
+      <c r="CP29"/>
+      <c r="CQ29"/>
     </row>
-    <row r="30" ht="15.0" customHeight="true">
-      <c r="A30" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="18"/>
-      <c r="U30" s="18"/>
-      <c r="V30" s="18"/>
-      <c r="W30" s="18"/>
-      <c r="X30" s="18"/>
-      <c r="Y30" s="18"/>
-      <c r="Z30" s="18"/>
-      <c r="AA30" s="18"/>
-      <c r="AB30" s="18"/>
-      <c r="AC30" s="18"/>
-      <c r="AD30" s="18"/>
-      <c r="AE30" s="18"/>
-      <c r="AF30" s="18"/>
-      <c r="AG30" s="18"/>
-      <c r="AH30" s="18"/>
-      <c r="AI30" s="18"/>
-      <c r="AJ30" s="18"/>
-      <c r="AK30" s="18"/>
-      <c r="AL30" s="18"/>
-      <c r="AM30" s="18"/>
-      <c r="AN30" s="18"/>
-      <c r="AO30" s="18"/>
-      <c r="AP30" s="18"/>
-      <c r="AQ30" s="18"/>
-      <c r="AR30" s="18"/>
-      <c r="AS30" s="18"/>
-      <c r="AT30" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AU30" s="18"/>
-      <c r="AV30" s="18"/>
-      <c r="AW30" s="18"/>
-      <c r="AX30" s="18"/>
-      <c r="AY30" s="18"/>
-      <c r="AZ30" s="18"/>
-      <c r="BA30" s="18"/>
-      <c r="BB30" s="18"/>
-      <c r="BC30" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="BD30" s="18"/>
-      <c r="BE30" s="18"/>
-      <c r="BF30" s="18"/>
-      <c r="BG30" s="18"/>
-      <c r="BH30" s="18"/>
-      <c r="BI30" s="18"/>
-      <c r="BJ30" s="18"/>
-      <c r="BK30" s="18"/>
-      <c r="BL30" s="18"/>
-      <c r="BM30" s="18"/>
-      <c r="BN30" s="18"/>
-      <c r="BO30" s="18"/>
-      <c r="BP30" s="18"/>
-      <c r="BQ30" s="18"/>
-      <c r="BR30" s="18"/>
-      <c r="BS30" s="18"/>
-      <c r="BT30" s="18"/>
-      <c r="BU30" s="18"/>
-      <c r="BV30" s="18"/>
-      <c r="BW30" s="18"/>
-      <c r="BX30" s="18"/>
-      <c r="BY30" s="18"/>
-      <c r="BZ30" s="18"/>
-      <c r="CA30" s="18"/>
-      <c r="CB30" s="18"/>
-      <c r="CC30" s="18"/>
-      <c r="CD30" s="18"/>
-      <c r="CE30" s="18"/>
-      <c r="CF30" s="18"/>
-      <c r="CG30" s="18"/>
-      <c r="CH30" s="18"/>
-      <c r="CI30" s="18"/>
-      <c r="CJ30" s="18"/>
-      <c r="CK30" s="18"/>
-      <c r="CL30" s="18"/>
-      <c r="CM30" s="18"/>
-      <c r="CN30" s="18"/>
-      <c r="CO30" s="18"/>
-      <c r="CP30" s="18"/>
-      <c r="CQ30" s="18"/>
-    </row>
-    <row r="31" ht="15.0" customHeight="true">
-      <c r="A31" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
-      <c r="V31" s="19"/>
-      <c r="W31" s="19"/>
-      <c r="X31" s="19"/>
-      <c r="Y31" s="19"/>
-      <c r="Z31" s="19"/>
-      <c r="AA31" s="19"/>
-      <c r="AB31" s="19"/>
-      <c r="AC31" s="19"/>
-      <c r="AD31" s="19"/>
-      <c r="AE31" s="19"/>
-      <c r="AF31" s="19"/>
-      <c r="AG31" s="19"/>
-      <c r="AH31" s="19"/>
-      <c r="AI31" s="19"/>
-      <c r="AJ31" s="19"/>
-      <c r="AK31" s="19"/>
-      <c r="AL31" s="19"/>
-      <c r="AM31" s="19"/>
-      <c r="AN31" s="19"/>
-      <c r="AO31" s="19"/>
-      <c r="AP31" s="19"/>
-      <c r="AQ31" s="19"/>
-      <c r="AR31" s="19"/>
-      <c r="AS31" s="19"/>
-      <c r="AT31" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="AU31" s="19"/>
-      <c r="AV31" s="19"/>
-      <c r="AW31" s="19"/>
-      <c r="AX31" s="19"/>
-      <c r="AY31" s="19"/>
-      <c r="AZ31" s="19"/>
-      <c r="BA31" s="19"/>
-      <c r="BB31" s="19"/>
-      <c r="BC31" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="BD31" s="19"/>
-      <c r="BE31" s="19"/>
-      <c r="BF31" s="19"/>
-      <c r="BG31" s="19"/>
-      <c r="BH31" s="19"/>
-      <c r="BI31" s="19"/>
-      <c r="BJ31" s="19"/>
-      <c r="BK31" s="19"/>
-      <c r="BL31" s="19"/>
-      <c r="BM31" s="19"/>
-      <c r="BN31" s="19"/>
-      <c r="BO31" s="19"/>
-      <c r="BP31" s="19"/>
-      <c r="BQ31" s="19"/>
-      <c r="BR31" s="19"/>
-      <c r="BS31" s="19"/>
-      <c r="BT31" s="19"/>
-      <c r="BU31" s="19"/>
-      <c r="BV31" s="19"/>
-      <c r="BW31" s="19"/>
-      <c r="BX31" s="19"/>
-      <c r="BY31" s="19"/>
-      <c r="BZ31" s="19"/>
-      <c r="CA31" s="19"/>
-      <c r="CB31" s="19"/>
-      <c r="CC31" s="19"/>
-      <c r="CD31" s="19"/>
-      <c r="CE31" s="19"/>
-      <c r="CF31" s="19"/>
-      <c r="CG31" s="19"/>
-      <c r="CH31" s="19"/>
-      <c r="CI31" s="19"/>
-      <c r="CJ31" s="19"/>
-      <c r="CK31" s="19"/>
-      <c r="CL31" s="19"/>
-      <c r="CM31" s="19"/>
-      <c r="CN31" s="19"/>
-      <c r="CO31" s="19"/>
-      <c r="CP31" s="19"/>
-      <c r="CQ31" s="19"/>
-    </row>
-    <row r="32" ht="15.0" customHeight="true">
-      <c r="A32" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="20"/>
-      <c r="V32" s="20"/>
-      <c r="W32" s="20"/>
-      <c r="X32" s="20"/>
-      <c r="Y32" s="20"/>
-      <c r="Z32" s="20"/>
-      <c r="AA32" s="20"/>
-      <c r="AB32" s="20"/>
-      <c r="AC32" s="20"/>
-      <c r="AD32" s="20"/>
-      <c r="AE32" s="20"/>
-      <c r="AF32" s="20"/>
-      <c r="AG32" s="20"/>
-      <c r="AH32" s="20"/>
-      <c r="AI32" s="20"/>
-      <c r="AJ32" s="20"/>
-      <c r="AK32" s="20"/>
-      <c r="AL32" s="20"/>
-      <c r="AM32" s="20"/>
-      <c r="AN32" s="20"/>
-      <c r="AO32" s="20"/>
-      <c r="AP32" s="20"/>
-      <c r="AQ32" s="20"/>
-      <c r="AR32" s="20"/>
-      <c r="AS32" s="20"/>
-      <c r="AT32" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="AU32" s="20"/>
-      <c r="AV32" s="20"/>
-      <c r="AW32" s="20"/>
-      <c r="AX32" s="20"/>
-      <c r="AY32" s="20"/>
-      <c r="AZ32" s="20"/>
-      <c r="BA32" s="20"/>
-      <c r="BB32" s="20"/>
-      <c r="BC32" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="BD32" s="20"/>
-      <c r="BE32" s="20"/>
-      <c r="BF32" s="20"/>
-      <c r="BG32" s="20"/>
-      <c r="BH32" s="20"/>
-      <c r="BI32" s="20"/>
-      <c r="BJ32" s="20"/>
-      <c r="BK32" s="20"/>
-      <c r="BL32" s="20"/>
-      <c r="BM32" s="20"/>
-      <c r="BN32" s="20"/>
-      <c r="BO32" s="20"/>
-      <c r="BP32" s="20"/>
-      <c r="BQ32" s="20"/>
-      <c r="BR32" s="20"/>
-      <c r="BS32" s="20"/>
-      <c r="BT32" s="20"/>
-      <c r="BU32" s="20"/>
-      <c r="BV32" s="20"/>
-      <c r="BW32" s="20"/>
-      <c r="BX32" s="20"/>
-      <c r="BY32" s="20"/>
-      <c r="BZ32" s="20"/>
-      <c r="CA32" s="20"/>
-      <c r="CB32" s="20"/>
-      <c r="CC32" s="20"/>
-      <c r="CD32" s="20"/>
-      <c r="CE32" s="20"/>
-      <c r="CF32" s="20"/>
-      <c r="CG32" s="20"/>
-      <c r="CH32" s="20"/>
-      <c r="CI32" s="20"/>
-      <c r="CJ32" s="20"/>
-      <c r="CK32" s="20"/>
-      <c r="CL32" s="20"/>
-      <c r="CM32" s="20"/>
-      <c r="CN32" s="20"/>
-      <c r="CO32" s="20"/>
-      <c r="CP32" s="20"/>
-      <c r="CQ32" s="20"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="21"/>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
-      <c r="M33"/>
-      <c r="N33"/>
-      <c r="O33"/>
-      <c r="P33"/>
-      <c r="Q33"/>
-      <c r="R33"/>
-      <c r="S33"/>
-      <c r="T33"/>
-      <c r="U33"/>
-      <c r="V33"/>
-      <c r="W33"/>
-      <c r="X33"/>
-      <c r="Y33"/>
-      <c r="Z33"/>
-      <c r="AA33"/>
-      <c r="AB33"/>
-      <c r="AC33"/>
-      <c r="AD33"/>
-      <c r="AE33"/>
-      <c r="AF33"/>
-      <c r="AG33"/>
-      <c r="AH33"/>
-      <c r="AI33"/>
-      <c r="AJ33"/>
-      <c r="AK33"/>
-      <c r="AL33"/>
-      <c r="AM33"/>
-      <c r="AN33"/>
-      <c r="AO33"/>
-      <c r="AP33"/>
-      <c r="AQ33"/>
-      <c r="AR33"/>
-      <c r="AS33"/>
-      <c r="AT33"/>
-      <c r="AU33"/>
-      <c r="AV33"/>
-      <c r="AW33"/>
-      <c r="AX33"/>
-      <c r="AY33"/>
-      <c r="AZ33"/>
-      <c r="BA33"/>
-      <c r="BB33"/>
-      <c r="BC33"/>
-      <c r="BD33"/>
-      <c r="BE33"/>
-      <c r="BF33"/>
-      <c r="BG33"/>
-      <c r="BH33"/>
-      <c r="BI33"/>
-      <c r="BJ33"/>
-      <c r="BK33"/>
-      <c r="BL33"/>
-      <c r="BM33"/>
-      <c r="BN33"/>
-      <c r="BO33"/>
-      <c r="BP33"/>
-      <c r="BQ33"/>
-      <c r="BR33"/>
-      <c r="BS33"/>
-      <c r="BT33"/>
-      <c r="BU33"/>
-      <c r="BV33"/>
-      <c r="BW33"/>
-      <c r="BX33"/>
-      <c r="BY33"/>
-      <c r="BZ33"/>
-      <c r="CA33"/>
-      <c r="CB33"/>
-      <c r="CC33"/>
-      <c r="CD33"/>
-      <c r="CE33"/>
-      <c r="CF33"/>
-      <c r="CG33"/>
-      <c r="CH33"/>
-      <c r="CI33"/>
-      <c r="CJ33"/>
-      <c r="CK33"/>
-      <c r="CL33"/>
-      <c r="CM33"/>
-      <c r="CN33"/>
-      <c r="CO33"/>
-      <c r="CP33"/>
-      <c r="CQ33"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="22"/>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34"/>
-      <c r="O34"/>
-      <c r="P34"/>
-      <c r="Q34"/>
-      <c r="R34"/>
-      <c r="S34"/>
-      <c r="T34"/>
-      <c r="U34"/>
-      <c r="V34"/>
-      <c r="W34"/>
-      <c r="X34"/>
-      <c r="Y34"/>
-      <c r="Z34"/>
-      <c r="AA34"/>
-      <c r="AB34"/>
-      <c r="AC34"/>
-      <c r="AD34"/>
-      <c r="AE34"/>
-      <c r="AF34"/>
-      <c r="AG34"/>
-      <c r="AH34"/>
-      <c r="AI34"/>
-      <c r="AJ34"/>
-      <c r="AK34"/>
-      <c r="AL34"/>
-      <c r="AM34"/>
-      <c r="AN34"/>
-      <c r="AO34"/>
-      <c r="AP34"/>
-      <c r="AQ34"/>
-      <c r="AR34"/>
-      <c r="AS34"/>
-      <c r="AT34"/>
-      <c r="AU34"/>
-      <c r="AV34"/>
-      <c r="AW34"/>
-      <c r="AX34"/>
-      <c r="AY34"/>
-      <c r="AZ34"/>
-      <c r="BA34"/>
-      <c r="BB34"/>
-      <c r="BC34"/>
-      <c r="BD34"/>
-      <c r="BE34"/>
-      <c r="BF34"/>
-      <c r="BG34"/>
-      <c r="BH34"/>
-      <c r="BI34"/>
-      <c r="BJ34"/>
-      <c r="BK34"/>
-      <c r="BL34"/>
-      <c r="BM34"/>
-      <c r="BN34"/>
-      <c r="BO34"/>
-      <c r="BP34"/>
-      <c r="BQ34"/>
-      <c r="BR34"/>
-      <c r="BS34"/>
-      <c r="BT34"/>
-      <c r="BU34"/>
-      <c r="BV34"/>
-      <c r="BW34"/>
-      <c r="BX34"/>
-      <c r="BY34"/>
-      <c r="BZ34"/>
-      <c r="CA34"/>
-      <c r="CB34"/>
-      <c r="CC34"/>
-      <c r="CD34"/>
-      <c r="CE34"/>
-      <c r="CF34"/>
-      <c r="CG34"/>
-      <c r="CH34"/>
-      <c r="CI34"/>
-      <c r="CJ34"/>
-      <c r="CK34"/>
-      <c r="CL34"/>
-      <c r="CM34"/>
-      <c r="CN34"/>
-      <c r="CO34"/>
-      <c r="CP34"/>
-      <c r="CQ34"/>
-    </row>
-    <row r="35">
-      <c r="A35"/>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
-      <c r="O35"/>
-      <c r="P35"/>
-      <c r="Q35"/>
-      <c r="R35"/>
-      <c r="S35"/>
-      <c r="T35"/>
-      <c r="U35"/>
-      <c r="V35"/>
-      <c r="W35"/>
-      <c r="X35"/>
-      <c r="Y35"/>
-      <c r="Z35"/>
-      <c r="AA35"/>
-      <c r="AB35"/>
-      <c r="AC35"/>
-      <c r="AD35"/>
-      <c r="AE35"/>
-      <c r="AF35"/>
-      <c r="AG35"/>
-      <c r="AH35"/>
-      <c r="AI35"/>
-      <c r="AJ35"/>
-      <c r="AK35"/>
-      <c r="AL35"/>
-      <c r="AM35"/>
-      <c r="AN35"/>
-      <c r="AO35"/>
-      <c r="AP35"/>
-      <c r="AQ35"/>
-      <c r="AR35"/>
-      <c r="AS35"/>
-      <c r="AT35"/>
-      <c r="AU35"/>
-      <c r="AV35"/>
-      <c r="AW35"/>
-      <c r="AX35"/>
-      <c r="AY35"/>
-      <c r="AZ35"/>
-      <c r="BA35"/>
-      <c r="BB35"/>
-      <c r="BC35"/>
-      <c r="BD35"/>
-      <c r="BE35"/>
-      <c r="BF35"/>
-      <c r="BG35"/>
-      <c r="BH35"/>
-      <c r="BI35"/>
-      <c r="BJ35"/>
-      <c r="BK35"/>
-      <c r="BL35"/>
-      <c r="BM35"/>
-      <c r="BN35"/>
-      <c r="BO35"/>
-      <c r="BP35"/>
-      <c r="BQ35"/>
-      <c r="BR35"/>
-      <c r="BS35"/>
-      <c r="BT35"/>
-      <c r="BU35"/>
-      <c r="BV35"/>
-      <c r="BW35"/>
-      <c r="BX35"/>
-      <c r="BY35"/>
-      <c r="BZ35"/>
-      <c r="CA35"/>
-      <c r="CB35"/>
-      <c r="CC35"/>
-      <c r="CD35"/>
-      <c r="CE35"/>
-      <c r="CF35"/>
-      <c r="CG35"/>
-      <c r="CH35"/>
-      <c r="CI35"/>
-      <c r="CJ35"/>
-      <c r="CK35"/>
-      <c r="CL35"/>
-      <c r="CM35"/>
-      <c r="CN35"/>
-      <c r="CO35"/>
-      <c r="CP35"/>
-      <c r="CQ35"/>
+    <row r="30" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="1"/>
+      <c r="AO30" s="1"/>
+      <c r="AP30" s="1"/>
+      <c r="AQ30" s="1"/>
+      <c r="AR30" s="1"/>
+      <c r="AS30" s="1"/>
+      <c r="AT30" s="1"/>
+      <c r="AU30" s="1"/>
+      <c r="AV30" s="1"/>
+      <c r="AW30" s="1"/>
+      <c r="AX30" s="1"/>
+      <c r="AY30" s="1"/>
+      <c r="AZ30" s="1"/>
+      <c r="BA30" s="1"/>
+      <c r="BB30" s="1"/>
+      <c r="BC30" s="1"/>
+      <c r="BD30" s="1"/>
+      <c r="BE30" s="1"/>
+      <c r="BF30" s="1"/>
+      <c r="BG30" s="1"/>
+      <c r="BH30" s="1"/>
+      <c r="BI30" s="1"/>
+      <c r="BJ30" s="1"/>
+      <c r="BK30" s="1"/>
+      <c r="BL30" s="1"/>
+      <c r="BM30" s="1"/>
+      <c r="BN30" s="1"/>
+      <c r="BO30" s="1"/>
+      <c r="BP30" s="1"/>
+      <c r="BQ30" s="1"/>
+      <c r="BR30" s="1"/>
+      <c r="BS30" s="1"/>
+      <c r="BT30" s="1"/>
+      <c r="BU30" s="1"/>
+      <c r="BV30" s="1"/>
+      <c r="BW30" s="1"/>
+      <c r="BX30" s="1"/>
+      <c r="BY30" s="1"/>
+      <c r="BZ30" s="1"/>
+      <c r="CA30" s="1"/>
+      <c r="CB30" s="1"/>
+      <c r="CC30" s="1"/>
+      <c r="CD30" s="1"/>
+      <c r="CE30" s="1"/>
+      <c r="CF30" s="1"/>
+      <c r="CG30" s="1"/>
+      <c r="CH30" s="1"/>
+      <c r="CI30" s="1"/>
+      <c r="CJ30" s="1"/>
+      <c r="CK30" s="1"/>
+      <c r="CL30" s="1"/>
+      <c r="CM30" s="1"/>
+      <c r="CN30" s="1"/>
+      <c r="CO30" s="1"/>
+      <c r="CP30" s="1"/>
+      <c r="CQ30" s="1"/>
+      <c r="CR30" s="1"/>
+      <c r="CS30" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="70">
+  <mergeCells count="47">
     <mergeCell ref="A7:CQ7"/>
     <mergeCell ref="A8:CQ8"/>
     <mergeCell ref="A1:CQ1"/>
@@ -4215,17 +3652,21 @@
     <mergeCell ref="X14:CQ14"/>
     <mergeCell ref="A12:W12"/>
     <mergeCell ref="X12:CQ12"/>
+    <mergeCell ref="X16:CQ16"/>
+    <mergeCell ref="BJ18:CO18"/>
+    <mergeCell ref="A20:CQ20"/>
+    <mergeCell ref="A16:W16"/>
     <mergeCell ref="A15:W15"/>
     <mergeCell ref="X15:CQ15"/>
-    <mergeCell ref="X17:CQ17"/>
-    <mergeCell ref="BJ19:CO19"/>
-    <mergeCell ref="A21:CQ21"/>
-    <mergeCell ref="A17:W17"/>
-    <mergeCell ref="A16:W16"/>
-    <mergeCell ref="X16:CQ16"/>
-    <mergeCell ref="A23:CQ23"/>
-    <mergeCell ref="A24:AW24"/>
-    <mergeCell ref="AX24:CQ24"/>
+    <mergeCell ref="A22:CQ22"/>
+    <mergeCell ref="A23:AW23"/>
+    <mergeCell ref="AX23:CQ23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:M24"/>
+    <mergeCell ref="N24:AS24"/>
+    <mergeCell ref="AT24:BB24"/>
+    <mergeCell ref="BC24:CH24"/>
+    <mergeCell ref="CI24:CQ24"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="E25:M25"/>
     <mergeCell ref="N25:AS25"/>
@@ -4239,34 +3680,7 @@
     <mergeCell ref="BC26:CH26"/>
     <mergeCell ref="CI26:CQ26"/>
     <mergeCell ref="A27:CQ27"/>
-    <mergeCell ref="A28:AW28"/>
-    <mergeCell ref="AX28:CQ28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="E29:M29"/>
-    <mergeCell ref="N29:AS29"/>
-    <mergeCell ref="AT29:BB29"/>
-    <mergeCell ref="BC29:CH29"/>
-    <mergeCell ref="CI29:CQ29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="E30:M30"/>
-    <mergeCell ref="N30:AS30"/>
-    <mergeCell ref="AT30:BB30"/>
-    <mergeCell ref="BC30:CH30"/>
-    <mergeCell ref="CI30:CQ30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="E31:M31"/>
-    <mergeCell ref="N31:AS31"/>
-    <mergeCell ref="AT31:BB31"/>
-    <mergeCell ref="BC31:CH31"/>
-    <mergeCell ref="CI31:CQ31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E32:M32"/>
-    <mergeCell ref="N32:AS32"/>
-    <mergeCell ref="AT32:BB32"/>
-    <mergeCell ref="BC32:CH32"/>
-    <mergeCell ref="CI32:CQ32"/>
-    <mergeCell ref="A33:CQ33"/>
-    <mergeCell ref="A34:CQ34"/>
+    <mergeCell ref="A28:CQ28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1" bottom="0.5" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
